--- a/Pedidos/err1.xlsx
+++ b/Pedidos/err1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>CNPJ/SKU</t>
   </si>
@@ -22,91 +22,121 @@
     <t>ORDEM DE COMPRA/QUANTIDADE</t>
   </si>
   <si>
-    <t>25099323000105</t>
-  </si>
-  <si>
-    <t>5848</t>
-  </si>
-  <si>
-    <t>9829</t>
-  </si>
-  <si>
-    <t>1913</t>
-  </si>
-  <si>
-    <t>5833</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>9617</t>
-  </si>
-  <si>
-    <t>9618</t>
-  </si>
-  <si>
-    <t>9616</t>
-  </si>
-  <si>
-    <t>1121</t>
-  </si>
-  <si>
-    <t>1120</t>
-  </si>
-  <si>
-    <t>2752</t>
-  </si>
-  <si>
-    <t>1649</t>
-  </si>
-  <si>
-    <t>5644</t>
+    <t>06270753000101</t>
+  </si>
+  <si>
+    <t>3920</t>
+  </si>
+  <si>
+    <t>3922</t>
+  </si>
+  <si>
+    <t>3923</t>
+  </si>
+  <si>
+    <t>3900</t>
+  </si>
+  <si>
+    <t>3901</t>
+  </si>
+  <si>
+    <t>3902</t>
+  </si>
+  <si>
+    <t>5640</t>
+  </si>
+  <si>
+    <t>5642</t>
+  </si>
+  <si>
+    <t>5643</t>
+  </si>
+  <si>
+    <t>5641</t>
+  </si>
+  <si>
+    <t>5651</t>
+  </si>
+  <si>
+    <t>3460</t>
+  </si>
+  <si>
+    <t>3459</t>
   </si>
   <si>
     <t>5609</t>
   </si>
   <si>
-    <t>5642</t>
-  </si>
-  <si>
-    <t>5640</t>
-  </si>
-  <si>
-    <t>5574</t>
-  </si>
-  <si>
-    <t>3900</t>
+    <t>3458</t>
+  </si>
+  <si>
+    <t>4546</t>
+  </si>
+  <si>
+    <t>5886</t>
+  </si>
+  <si>
+    <t>5842</t>
+  </si>
+  <si>
+    <t>5863</t>
+  </si>
+  <si>
+    <t>9046</t>
+  </si>
+  <si>
+    <t>9208</t>
+  </si>
+  <si>
+    <t>8714</t>
+  </si>
+  <si>
+    <t>3479</t>
+  </si>
+  <si>
+    <t>4730</t>
+  </si>
+  <si>
+    <t>4608</t>
   </si>
   <si>
     <t>2458</t>
   </si>
   <si>
-    <t>8711</t>
+    <t>2461</t>
+  </si>
+  <si>
+    <t>2456</t>
+  </si>
+  <si>
+    <t>2463</t>
+  </si>
+  <si>
+    <t>4350</t>
+  </si>
+  <si>
+    <t>7960</t>
+  </si>
+  <si>
+    <t>1215</t>
+  </si>
+  <si>
+    <t>1216</t>
+  </si>
+  <si>
+    <t>1300</t>
+  </si>
+  <si>
+    <t>1841</t>
+  </si>
+  <si>
+    <t>8937</t>
+  </si>
+  <si>
+    <t>9734</t>
   </si>
   <si>
     <t>2360</t>
-  </si>
-  <si>
-    <t>1216</t>
-  </si>
-  <si>
-    <t>1215</t>
-  </si>
-  <si>
-    <t>1214</t>
-  </si>
-  <si>
-    <t>1205</t>
-  </si>
-  <si>
-    <t>1411</t>
-  </si>
-  <si>
-    <t>1410</t>
-  </si>
-  <si>
-    <t>8715</t>
   </si>
 </sst>
 </file>
@@ -464,7 +494,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -488,7 +518,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -496,7 +526,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>33</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -504,7 +534,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -512,7 +542,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -520,7 +550,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -528,7 +558,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -544,7 +574,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -552,7 +582,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -560,7 +590,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -568,7 +598,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -576,7 +606,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -584,7 +614,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -600,7 +630,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -624,7 +654,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -632,7 +662,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -640,7 +670,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -648,7 +678,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -656,7 +686,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>12</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -664,7 +694,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -672,7 +702,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -680,7 +710,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -688,7 +718,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -696,7 +726,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -704,7 +734,87 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>30</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
